--- a/DataDictionary/Crosswalk+DataDictionary_v2.0.xlsx
+++ b/DataDictionary/Crosswalk+DataDictionary_v2.0.xlsx
@@ -15,10 +15,9 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$H$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$B$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1211,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="149">
   <si>
     <t>identity</t>
   </si>
@@ -1587,15 +1586,6 @@
 //arelda:Ordnungssystem/arelda:Zusatzdaten(key/value)</t>
   </si>
   <si>
-    <t>Herkunft</t>
-  </si>
-  <si>
-    <t>Wertebereich</t>
-  </si>
-  <si>
-    <t>Vorkommen</t>
-  </si>
-  <si>
     <t>AIP-Metadatum "Archivsignatur"</t>
   </si>
   <si>
@@ -1675,9 +1665,6 @@
   </si>
   <si>
     <t>Werteliste (digital, analog, hybrid) und Freitext</t>
-  </si>
-  <si>
-    <t>SIP-Metadatum "aktenzeichen"</t>
   </si>
   <si>
     <t>wird im Ingest-Prozess erzeugt und verzeichnet</t>
@@ -1725,6 +1712,15 @@
   </si>
   <si>
     <t>DD: Vorkommen</t>
+  </si>
+  <si>
+    <t>SIP-Metadatum „Erscheinungsform“</t>
+  </si>
+  <si>
+    <t>SIP-Metadatum "Bemerkung"</t>
+  </si>
+  <si>
+    <t>SIP-Metadatum "Aktenzeichen"</t>
   </si>
 </sst>
 </file>
@@ -2029,9 +2025,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2088,26 +2081,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2161,161 +2143,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2585,11 +2412,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O71"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="A1:H71"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="51.375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2605,25 +2435,22 @@
     <col min="10" max="10" width="56.75" style="11" customWidth="1"/>
     <col min="11" max="11" width="44" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="51.375" style="11"/>
+    <col min="13" max="16384" width="51.375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>55</v>
@@ -2637,17 +2464,8 @@
       <c r="L1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2657,15 +2475,15 @@
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="9"/>
       <c r="C3" s="13">
@@ -2675,14 +2493,14 @@
         <v>9</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="45" t="s">
-        <v>113</v>
+      <c r="F3" s="44" t="s">
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>107</v>
@@ -2696,17 +2514,8 @@
       <c r="L3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="9"/>
       <c r="C4" s="13">
@@ -2716,14 +2525,14 @@
         <v>10</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="45" t="s">
-        <v>116</v>
+      <c r="F4" s="44" t="s">
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="45" t="s">
         <v>114</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>117</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>107</v>
@@ -2737,17 +2546,8 @@
       <c r="L4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="9"/>
       <c r="C5" s="13">
@@ -2757,40 +2557,31 @@
         <v>11</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>119</v>
+      <c r="F5" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="9"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="9"/>
       <c r="C6" s="16"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="14" t="s">
         <v>93</v>
       </c>
@@ -2801,87 +2592,72 @@
       <c r="L6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="9"/>
       <c r="C7" s="16"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="10"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="9"/>
       <c r="C8" s="16"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="10"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="9"/>
       <c r="C9" s="16"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="10"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="9"/>
       <c r="C10" s="16"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="10"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="9"/>
       <c r="C11" s="17">
@@ -2890,15 +2666,15 @@
       <c r="D11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="45" t="s">
-        <v>120</v>
+      <c r="E11" s="37"/>
+      <c r="F11" s="44" t="s">
+        <v>117</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>106</v>
@@ -2912,17 +2688,8 @@
       <c r="L11" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="9"/>
       <c r="C12" s="17">
@@ -2932,40 +2699,31 @@
         <v>13</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="45" t="s">
-        <v>123</v>
+      <c r="F12" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="46"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
@@ -2973,48 +2731,48 @@
       </c>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="46"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="46"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C17" s="13">
         <v>2.1</v>
       </c>
@@ -3022,14 +2780,14 @@
         <v>14</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="45" t="s">
-        <v>125</v>
+      <c r="F17" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>70</v>
@@ -3039,17 +2797,8 @@
       <c r="L17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C18" s="13">
         <v>2.2000000000000002</v>
       </c>
@@ -3057,14 +2806,14 @@
         <v>15</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="45" t="s">
-        <v>127</v>
+      <c r="F18" s="44" t="s">
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>71</v>
@@ -3072,17 +2821,8 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="C19" s="13">
         <v>2.2999999999999998</v>
@@ -3091,30 +2831,21 @@
         <v>16</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>128</v>
+      <c r="F19" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="O19" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C20" s="13">
         <v>2.4</v>
       </c>
@@ -3122,14 +2853,14 @@
         <v>17</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="45" t="s">
-        <v>130</v>
+      <c r="F20" s="44" t="s">
+        <v>127</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>67</v>
@@ -3137,78 +2868,60 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F21" s="45"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F21" s="44"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="46"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="46"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="C23" s="17">
         <v>3.1</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>132</v>
+      <c r="F23" s="44" t="s">
+        <v>129</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="23"/>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="46"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
@@ -3218,14 +2931,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C25" s="24"/>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="46"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="10" t="s">
         <v>68</v>
       </c>
@@ -3235,7 +2948,7 @@
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C26" s="17">
         <v>3.2</v>
       </c>
@@ -3243,14 +2956,14 @@
         <v>19</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="45" t="s">
-        <v>129</v>
+      <c r="F26" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>69</v>
@@ -3258,17 +2971,8 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C27" s="17">
         <v>3.3</v>
       </c>
@@ -3276,30 +2980,21 @@
         <v>20</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="45" t="s">
-        <v>129</v>
+      <c r="F27" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C28" s="17">
         <v>3.4</v>
       </c>
@@ -3307,14 +3002,14 @@
         <v>21</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="45" t="s">
-        <v>134</v>
+      <c r="F28" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>79</v>
@@ -3322,42 +3017,33 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E29" s="9"/>
-      <c r="F29" s="45"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="46"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>4</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="46"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="C31" s="13">
         <v>4.0999999999999996</v>
       </c>
@@ -3365,38 +3051,29 @@
         <v>22</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="45" t="s">
-        <v>135</v>
+      <c r="F31" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
-      <c r="M31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="23"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="46"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10" t="s">
         <v>73</v>
@@ -3408,15 +3085,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C33" s="16"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="46"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
         <v>74</v>
@@ -3428,15 +3105,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C34" s="16"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="46"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
         <v>75</v>
@@ -3448,15 +3125,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C35" s="16"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="46"/>
+      <c r="H35" s="45"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
         <v>76</v>
@@ -3468,15 +3145,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C36" s="16"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="46"/>
+      <c r="H36" s="45"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10" t="s">
         <v>77</v>
@@ -3488,19 +3165,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C37" s="16"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="45"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="46"/>
+      <c r="H37" s="45"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C38" s="13">
         <v>4.2</v>
       </c>
@@ -3508,30 +3185,21 @@
         <v>23</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="45" t="s">
-        <v>137</v>
+      <c r="F38" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
-      <c r="M38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C39" s="13">
         <v>4.3</v>
       </c>
@@ -3539,30 +3207,21 @@
         <v>24</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="45" t="s">
-        <v>129</v>
+      <c r="F39" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
-      <c r="M39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C40" s="13">
         <v>4.4000000000000004</v>
       </c>
@@ -3570,14 +3229,14 @@
         <v>25</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="45" t="s">
-        <v>137</v>
+      <c r="F40" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>119</v>
+        <v>136</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -3587,17 +3246,8 @@
       <c r="L40" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C41" s="13">
         <v>4.5</v>
       </c>
@@ -3605,187 +3255,142 @@
         <v>26</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="45" t="s">
-        <v>129</v>
+      <c r="F41" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
-      <c r="M41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="45"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="46"/>
+      <c r="H42" s="45"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>5</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="46"/>
+      <c r="H43" s="45"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44" s="17">
         <v>5.0999999999999996</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="45" t="s">
-        <v>129</v>
+      <c r="F44" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
-      <c r="M44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C45" s="17">
         <v>5.2</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="45" t="s">
-        <v>129</v>
+      <c r="F45" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C46" s="17">
         <v>5.3</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="45" t="s">
-        <v>129</v>
+      <c r="F46" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H46" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C47" s="17">
         <v>5.4</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="45" t="s">
-        <v>129</v>
+      <c r="F47" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="45"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="46"/>
+      <c r="H48" s="45"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>6</v>
       </c>
@@ -3794,15 +3399,15 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="45"/>
+      <c r="F49" s="44"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="46"/>
+      <c r="H49" s="45"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C50" s="13">
         <v>6.1</v>
       </c>
@@ -3810,14 +3415,14 @@
         <v>31</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="45" t="s">
-        <v>129</v>
+      <c r="F50" s="44" t="s">
+        <v>147</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>78</v>
@@ -3829,28 +3434,19 @@
       <c r="L50" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="45"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="46"/>
+      <c r="H51" s="45"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>7</v>
       </c>
@@ -3859,15 +3455,15 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="45"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="46"/>
+      <c r="H52" s="45"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C53" s="13">
         <v>7.1</v>
       </c>
@@ -3875,30 +3471,21 @@
         <v>32</v>
       </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="45" t="s">
-        <v>129</v>
+      <c r="F53" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
-      <c r="M53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C54" s="13">
         <v>7.2</v>
       </c>
@@ -3906,30 +3493,21 @@
         <v>33</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="45" t="s">
-        <v>129</v>
+      <c r="F54" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
-      <c r="M54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C55" s="13">
         <v>7.3</v>
       </c>
@@ -3937,41 +3515,32 @@
         <v>34</v>
       </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="45" t="s">
-        <v>129</v>
+      <c r="F55" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H55" s="46" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
-      <c r="M55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="45"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="46"/>
+      <c r="H56" s="45"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="7" t="s">
         <v>7</v>
@@ -3979,28 +3548,28 @@
       <c r="C57" s="17"/>
       <c r="D57" s="7"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="45"/>
+      <c r="F57" s="44"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="46"/>
+      <c r="H57" s="45"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C58" s="17"/>
       <c r="D58" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="45" t="s">
-        <v>140</v>
+      <c r="F58" s="44" t="s">
+        <v>148</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H58" s="46" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -4008,102 +3577,84 @@
         <v>92</v>
       </c>
       <c r="L58" s="10"/>
-      <c r="M58" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C59" s="17"/>
       <c r="D59" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="45" t="s">
-        <v>141</v>
+      <c r="F59" s="44" t="s">
+        <v>137</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>115</v>
+        <v>138</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F60" s="45"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F60" s="44"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="46"/>
+      <c r="H60" s="45"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="45"/>
+      <c r="F61" s="44"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="46"/>
+      <c r="H61" s="45"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C62" s="17"/>
       <c r="D62" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="45"/>
+      <c r="F62" s="44"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="46"/>
+      <c r="H62" s="45"/>
       <c r="I62" s="14"/>
       <c r="J62" s="10"/>
       <c r="K62" s="14"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:15" ht="255" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="C63" s="8"/>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F63" s="45" t="s">
-        <v>143</v>
+      <c r="F63" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" s="46" t="s">
-        <v>128</v>
+        <v>140</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>109</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K63" s="25" t="s">
         <v>108</v>
@@ -4111,37 +3662,25 @@
       <c r="L63" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="M63" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N63" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="O63" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C64" s="8"/>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="F64" s="45"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="46"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
+      <c r="H64" s="45"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C65" s="17"/>
       <c r="D65" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="38"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="51"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D68" s="26" t="s">
@@ -4181,90 +3720,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E65 I2:L65">
-    <cfRule type="expression" dxfId="29" priority="25">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N4 M6:N6 N5">
-    <cfRule type="expression" dxfId="28" priority="20">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7:N64">
-    <cfRule type="expression" dxfId="27" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1 O66:O1048576">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
-      <formula>"fakultativ"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
-      <formula>"aggregiert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
-      <formula>"vererbt"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
-      <formula>"obligatorisch"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
-      <formula>"vererbt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O6">
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O64">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="9" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G4 F6:G6 G5">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:G64">
-    <cfRule type="expression" dxfId="15" priority="8">
+  <conditionalFormatting sqref="F7:G39 F41:G64 G40">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"fakultativ"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"aggregiert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"vererbt"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"obligatorisch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"vererbt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H6">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H64">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N5" location="_ftn1" display="_ftn1"/>
     <hyperlink ref="G5" location="_ftn1" display="_ftn1"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="54" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>